--- a/Stocks/HINDPETRO.xlsx
+++ b/Stocks/HINDPETRO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>548.36666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>382.83661037773595</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>374.32507265566585</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>57.823938513269859</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.9499999999999886</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>6.9499999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.56834532374100644</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>414.15991126808632</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-29.035894014888015</v>
       </c>
       <c r="Y67">
         <v>-34.301046277931221</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>468.1</v>
+      </c>
+      <c r="D83">
+        <v>469.85</v>
+      </c>
+      <c r="E83">
+        <v>457.2</v>
+      </c>
+      <c r="F83">
+        <v>464</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>463.68333333333334</v>
+      </c>
+      <c r="H83">
+        <v>460.02648244136117</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>457.70546061585998</v>
+      </c>
+      <c r="K83">
+        <v>439.94634150610148</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>73.512579891718829</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.8000000000000114</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>12.650000000000034</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.53754940711462396</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>444.12784219183203</v>
+      </c>
+      <c r="W83">
+        <v>435.13740167188104</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>8.9904405199509938</v>
+      </c>
+      <c r="Y83">
+        <v>2.2979056472778252</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>467.4</v>
+      </c>
+      <c r="D84">
+        <v>475.5</v>
+      </c>
+      <c r="E84">
+        <v>465.6</v>
+      </c>
+      <c r="F84">
+        <v>468</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>469.7</v>
+      </c>
+      <c r="H84">
+        <v>464.86324122068061</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>461.65980270122441</v>
+      </c>
+      <c r="K84">
+        <v>445.64715450474557</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>76.481921765948385</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>9.8999999999999773</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.24242424242424068</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>447.80048185462709</v>
+      </c>
+      <c r="W84">
+        <v>437.57166821470469</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>10.228813639922407</v>
+      </c>
+      <c r="Y84">
+        <v>3.8840872458067417</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>471</v>
+      </c>
+      <c r="D85">
+        <v>491.35</v>
+      </c>
+      <c r="E85">
+        <v>468.4</v>
+      </c>
+      <c r="F85">
+        <v>485.55</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>481.76666666666665</v>
+      </c>
+      <c r="H85">
+        <v>473.31495394367363</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>468.25762432317453</v>
+      </c>
+      <c r="K85">
+        <v>450.70334239257988</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>85.436095390511539</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>17.150000000000034</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>22.950000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.74727668845315909</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>453.60810003083833</v>
+      </c>
+      <c r="W85">
+        <v>441.12561871731913</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>12.482481313519202</v>
+      </c>
+      <c r="Y85">
+        <v>5.6037660593492333</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>486.75</v>
+      </c>
+      <c r="D86">
+        <v>492.8</v>
+      </c>
+      <c r="E86">
+        <v>478.75</v>
+      </c>
+      <c r="F86">
+        <v>488.45</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>486.66666666666669</v>
+      </c>
+      <c r="H86">
+        <v>479.99081030517016</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>473.71148558469127</v>
+      </c>
+      <c r="K86">
+        <v>456.93593297200658</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>86.497925578075197</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>14.050000000000011</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.69039145907473176</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>458.96839233378626</v>
+      </c>
+      <c r="W86">
+        <v>444.63112844196218</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>14.33726389182408</v>
+      </c>
+      <c r="Y86">
+        <v>7.3504656258442029</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>491.4</v>
+      </c>
+      <c r="D87">
+        <v>491.4</v>
+      </c>
+      <c r="E87">
+        <v>478.75</v>
+      </c>
+      <c r="F87">
+        <v>480.1</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>483.41666666666669</v>
+      </c>
+      <c r="H87">
+        <v>481.70373848591839</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>477.64226656587101</v>
+      </c>
+      <c r="K87">
+        <v>461.7835034226718</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>68.518245275696543</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.3500000000000227</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.649999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.1067193675889348</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>462.21940889781916</v>
+      </c>
+      <c r="W87">
+        <v>447.25845226107612</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>14.960956636743049</v>
+      </c>
+      <c r="Y87">
+        <v>8.8725638280239725</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>482.05</v>
+      </c>
+      <c r="D88">
+        <v>485.15</v>
+      </c>
+      <c r="E88">
+        <v>470</v>
+      </c>
+      <c r="F88">
+        <v>475.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>476.88333333333338</v>
+      </c>
+      <c r="H88">
+        <v>479.29353590962592</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>479.31065177345522</v>
+      </c>
+      <c r="K88">
+        <v>463.60939155096696</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>59.93868805481101</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>15.149999999999977</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.3630363036303636</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>464.26257675969316</v>
+      </c>
+      <c r="W88">
+        <v>449.35041876025565</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>14.912157999437511</v>
+      </c>
+      <c r="Y88">
+        <v>10.080482662306681</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>477.5</v>
+      </c>
+      <c r="D89">
+        <v>483</v>
+      </c>
+      <c r="E89">
+        <v>471.55</v>
+      </c>
+      <c r="F89">
+        <v>482.25</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>478.93333333333334</v>
+      </c>
+      <c r="H89">
+        <v>479.11343462147966</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>480.13050693490959</v>
+      </c>
+      <c r="K89">
+        <v>465.37397120630766</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>67.421231688336505</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>10.699999999999989</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>11.449999999999989</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.93449781659388642</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>467.02987264281728</v>
+      </c>
+      <c r="W89">
+        <v>451.7874247780145</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>15.242447864802784</v>
+      </c>
+      <c r="Y89">
+        <v>11.112875702805901</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>479</v>
+      </c>
+      <c r="D90">
+        <v>479</v>
+      </c>
+      <c r="E90">
+        <v>474.1</v>
+      </c>
+      <c r="F90">
+        <v>476.65</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>476.58333333333331</v>
+      </c>
+      <c r="H90">
+        <v>477.84838397740646</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>479.87928317159634</v>
+      </c>
+      <c r="K90">
+        <v>467.31308871601709</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>56.481122071222799</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.5499999999999545</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.52040816326529926</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>468.50989223623003</v>
+      </c>
+      <c r="W90">
+        <v>453.62909701668008</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>14.880795219549952</v>
+      </c>
+      <c r="Y90">
+        <v>11.866459606154711</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>479</v>
+      </c>
+      <c r="D91">
+        <v>479.7</v>
+      </c>
+      <c r="E91">
+        <v>468.5</v>
+      </c>
+      <c r="F91">
+        <v>470</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>472.73333333333335</v>
+      </c>
+      <c r="H91">
+        <v>475.2908586553699</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>479.83944246679715</v>
+      </c>
+      <c r="K91">
+        <v>467.57684677912442</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>45.517643080487503</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>11.199999999999989</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.13392857142857156</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>468.73913958450231</v>
+      </c>
+      <c r="W91">
+        <v>454.841756496926</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>13.897383087576316</v>
+      </c>
+      <c r="Y91">
+        <v>12.272644302439032</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>467.35</v>
+      </c>
+      <c r="D92">
+        <v>474.3</v>
+      </c>
+      <c r="E92">
+        <v>459</v>
+      </c>
+      <c r="F92">
+        <v>463</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>465.43333333333334</v>
+      </c>
+      <c r="H92">
+        <v>470.36209599435165</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>478.60845525195333</v>
+      </c>
+      <c r="K92">
+        <v>465.67088082820788</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>36.257302316450932</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>15.300000000000011</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.26143790849673182</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>467.85619503304042</v>
+      </c>
+      <c r="W92">
+        <v>455.44607083048703</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>12.410124202553391</v>
+      </c>
+      <c r="Y92">
+        <v>12.300140282461903</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>467</v>
+      </c>
+      <c r="D93">
+        <v>471.25</v>
+      </c>
+      <c r="E93">
+        <v>416</v>
+      </c>
+      <c r="F93">
+        <v>465</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>450.75</v>
+      </c>
+      <c r="H93">
+        <v>460.55604799717582</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>476.97324297374149</v>
+      </c>
+      <c r="K93">
+        <v>454.63290731082833</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>40.575056821503274</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>55.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.8868778280542986</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>467.41678041257268</v>
+      </c>
+      <c r="W93">
+        <v>456.15376928748799</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>11.263011125084688</v>
+      </c>
+      <c r="Y93">
+        <v>12.09271445098646</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>468</v>
+      </c>
+      <c r="D94">
+        <v>483.9</v>
+      </c>
+      <c r="E94">
+        <v>466.6</v>
+      </c>
+      <c r="F94">
+        <v>483.9</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>478.13333333333338</v>
+      </c>
+      <c r="H94">
+        <v>469.34469066525457</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>478.51252231291005</v>
+      </c>
+      <c r="K94">
+        <v>457.2922612417554</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>66.988823275755905</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>17.299999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>17.299999999999955</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>469.95266034909997</v>
+      </c>
+      <c r="W94">
+        <v>458.20904563656296</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>11.74361471253701</v>
+      </c>
+      <c r="Y94">
+        <v>12.02289450329657</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>483.95</v>
+      </c>
+      <c r="D95">
+        <v>485.4</v>
+      </c>
+      <c r="E95">
+        <v>443.7</v>
+      </c>
+      <c r="F95">
+        <v>456.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>461.88333333333327</v>
+      </c>
+      <c r="H95">
+        <v>465.61401199929389</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>480.04307291004113</v>
+      </c>
+      <c r="K95">
+        <v>454.27175874358755</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>37.133073006794461</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>12.850000000000023</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>41.699999999999989</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.30815347721822606</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>467.89071260308458</v>
+      </c>
+      <c r="W95">
+        <v>458.08615336718793</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>9.8045592358966474</v>
+      </c>
+      <c r="Y95">
+        <v>11.579227449816585</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>474.05</v>
+      </c>
+      <c r="D96">
+        <v>477.95</v>
+      </c>
+      <c r="E96">
+        <v>450</v>
+      </c>
+      <c r="F96">
+        <v>460.5</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>462.81666666666666</v>
+      </c>
+      <c r="H96">
+        <v>464.21533933298031</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>479.57794559669867</v>
+      </c>
+      <c r="K96">
+        <v>453.32247902279033</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>41.81461906320056</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>10.5</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>27.949999999999989</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.37567084078711999</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>466.7536798949177</v>
+      </c>
+      <c r="W96">
+        <v>458.26495682147032</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>8.4887230734473746</v>
+      </c>
+      <c r="Y96">
+        <v>10.961126574542742</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>459</v>
+      </c>
+      <c r="D97">
+        <v>463.9</v>
+      </c>
+      <c r="E97">
+        <v>450.1</v>
+      </c>
+      <c r="F97">
+        <v>453.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>455.83333333333331</v>
+      </c>
+      <c r="H97">
+        <v>460.02433633315684</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>476.09395768632118</v>
+      </c>
+      <c r="K97">
+        <v>452.60637257328136</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>35.89361656010712</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.24637681159420205</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>464.71465221877651</v>
+      </c>
+      <c r="W97">
+        <v>457.91199705691696</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>6.8026551618595477</v>
+      </c>
+      <c r="Y97">
+        <v>10.129432292006104</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>457.85</v>
+      </c>
+      <c r="D98">
+        <v>458.55</v>
+      </c>
+      <c r="E98">
+        <v>441.2</v>
+      </c>
+      <c r="F98">
+        <v>448.7</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>449.48333333333335</v>
+      </c>
+      <c r="H98">
+        <v>454.75383483324509</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>472.19530042269423</v>
+      </c>
+      <c r="K98">
+        <v>450.07162311255217</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>32.008646943789913</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.350000000000023</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.43227665706051815</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>462.25085956973396</v>
+      </c>
+      <c r="W98">
+        <v>457.22962690455273</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>5.0212326651812305</v>
+      </c>
+      <c r="Y98">
+        <v>9.1077923666411298</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>448.8</v>
+      </c>
+      <c r="D99">
+        <v>465</v>
+      </c>
+      <c r="E99">
+        <v>444.35</v>
+      </c>
+      <c r="F99">
+        <v>462.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>457.34999999999997</v>
+      </c>
+      <c r="H99">
+        <v>456.05191741662253</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>470.59634477320662</v>
+      </c>
+      <c r="K99">
+        <v>448.80015130976278</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>51.247021388528715</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>18.349999999999966</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>20.649999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.88861985472154892</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>462.31995809746718</v>
+      </c>
+      <c r="W99">
+        <v>457.63483972643769</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>4.685118371029489</v>
+      </c>
+      <c r="Y99">
+        <v>8.223257567518802</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>462.6</v>
+      </c>
+      <c r="D100">
+        <v>462.6</v>
+      </c>
+      <c r="E100">
+        <v>448.55</v>
+      </c>
+      <c r="F100">
+        <v>453.3</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>454.81666666666666</v>
+      </c>
+      <c r="H100">
+        <v>455.4342920416446</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>468.8193792680496</v>
+      </c>
+      <c r="K100">
+        <v>448.74456212981551</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>41.412449858846138</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.75</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>14.050000000000011</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.33807829181494636</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>460.9322722363184</v>
+      </c>
+      <c r="W100">
+        <v>457.31374048744232</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>3.6185317488760802</v>
+      </c>
+      <c r="Y100">
+        <v>7.3023124037902578</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>452.15</v>
+      </c>
+      <c r="D101">
+        <v>458</v>
+      </c>
+      <c r="E101">
+        <v>447.3</v>
+      </c>
+      <c r="F101">
+        <v>452.35</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>452.55</v>
+      </c>
+      <c r="H101">
+        <v>453.9921460208223</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>466.4150727640386</v>
+      </c>
+      <c r="K101">
+        <v>448.42354832318983</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>40.432237099611889</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.0500000000000114</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>10.699999999999989</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.47196261682243146</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>459.61192266150016</v>
+      </c>
+      <c r="W101">
+        <v>456.94605600689101</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>2.6658666546091467</v>
+      </c>
+      <c r="Y101">
+        <v>6.3750232539540352</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>451.25</v>
+      </c>
+      <c r="D102">
+        <v>452</v>
+      </c>
+      <c r="E102">
+        <v>435.6</v>
+      </c>
+      <c r="F102">
+        <v>439.2</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>442.26666666666665</v>
+      </c>
+      <c r="H102">
+        <v>448.12940634374445</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>463.21172326091892</v>
+      </c>
+      <c r="K102">
+        <v>445.57387091803656</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>28.684602593840943</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999659</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>16.399999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.21951219512194944</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>456.4716268674232</v>
+      </c>
+      <c r="W102">
+        <v>455.63153333971388</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.840093527709314</v>
+      </c>
+      <c r="Y102">
+        <v>5.2680373087050913</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>437.9</v>
+      </c>
+      <c r="D103">
+        <v>439.55</v>
+      </c>
+      <c r="E103">
+        <v>419.6</v>
+      </c>
+      <c r="F103">
+        <v>426.7</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>428.61666666666673</v>
+      </c>
+      <c r="H103">
+        <v>438.37303650520562</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>457.95356253627028</v>
+      </c>
+      <c r="K103">
+        <v>439.80189960291733</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>21.323089891022562</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>7.0999999999999659</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>19.949999999999989</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.35588972431077542</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>451.89137658012731</v>
+      </c>
+      <c r="W103">
+        <v>453.48845679603136</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-1.5970802159040431</v>
+      </c>
+      <c r="Y103">
+        <v>3.8950138037832644</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>423</v>
+      </c>
+      <c r="D104">
+        <v>427.4</v>
+      </c>
+      <c r="E104">
+        <v>401</v>
+      </c>
+      <c r="F104">
+        <v>416</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>414.8</v>
+      </c>
+      <c r="H104">
+        <v>426.58651825260279</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>451.16388197265468</v>
+      </c>
+      <c r="K104">
+        <v>431.17925524671347</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>16.729228234523273</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>26.399999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.56818181818181868</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>446.36962633703081</v>
+      </c>
+      <c r="W104">
+        <v>450.71153407039941</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-4.3419077333686005</v>
+      </c>
+      <c r="Y104">
+        <v>2.2476294963528911</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>419.8</v>
+      </c>
+      <c r="D105">
+        <v>425.95</v>
+      </c>
+      <c r="E105">
+        <v>414.35</v>
+      </c>
+      <c r="F105">
+        <v>417</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>419.09999999999997</v>
+      </c>
+      <c r="H105">
+        <v>422.8432591263014</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>445.56079708984254</v>
+      </c>
+      <c r="K105">
+        <v>427.43942074744382</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>18.77356024043441</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>11.599999999999966</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.22844827586206767</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>441.85122228517992</v>
+      </c>
+      <c r="W105">
+        <v>448.21438339851795</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-6.3631611133380375</v>
+      </c>
+      <c r="Y105">
+        <v>0.52547137441470526</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>416</v>
+      </c>
+      <c r="D106">
+        <v>417.9</v>
+      </c>
+      <c r="E106">
+        <v>396.65</v>
+      </c>
+      <c r="F106">
+        <v>413.15</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>409.23333333333329</v>
+      </c>
+      <c r="H106">
+        <v>416.03829622981732</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>439.41395329209973</v>
+      </c>
+      <c r="K106">
+        <v>420.59732724801188</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>16.789857509813118</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>16.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>21.25</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>437.43564962592149</v>
+      </c>
+      <c r="W106">
+        <v>445.61702166529437</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-8.1813720393728886</v>
+      </c>
+      <c r="Y106">
+        <v>-1.2158973083428135</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>419.7</v>
+      </c>
+      <c r="D107">
+        <v>434.45</v>
+      </c>
+      <c r="E107">
+        <v>414.1</v>
+      </c>
+      <c r="F107">
+        <v>430</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>426.18333333333334</v>
+      </c>
+      <c r="H107">
+        <v>421.1108147815753</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>438.31085256052199</v>
+      </c>
+      <c r="K107">
+        <v>419.15347674845367</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>47.270885841038663</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>20.349999999999966</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.78132678132678157</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>436.29170352962586</v>
+      </c>
+      <c r="W107">
+        <v>444.46020524564295</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-8.1685017160170901</v>
+      </c>
+      <c r="Y107">
+        <v>-2.6064181898776688</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
